--- a/data/warnings_definitions.xlsx
+++ b/data/warnings_definitions.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\holme\OneDrive\Documents\Northeastern\Studio2\team-migration\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E705F150-AB9E-43D9-8F9A-0E90DC035D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{91ABFF58-0ED5-456B-99C0-15AE7A620295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="-15490" windowWidth="15780" windowHeight="12480" xr2:uid="{E6499C35-0BD1-410B-8086-530730FE9DBB}"/>
+    <workbookView xWindow="11950" yWindow="-16890" windowWidth="15780" windowHeight="12480" activeTab="1" xr2:uid="{E6499C35-0BD1-410B-8086-530730FE9DBB}"/>
   </bookViews>
   <sheets>
     <sheet name="warnings" sheetId="1" r:id="rId1"/>
     <sheet name="definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>residence</t>
   </si>
@@ -44,9 +45,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>{cntry} has a residence restriction to acquire citizenship. Please see country-specific notes.</t>
-  </si>
-  <si>
     <t>definition_id</t>
   </si>
   <si>
@@ -71,37 +69,163 @@
     <t>age</t>
   </si>
   <si>
-    <t>{cntry} has an age restriction to acquire citizenship. Please see country-specific notes.</t>
-  </si>
-  <si>
     <t>restriction_warning</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>{cntry} has an more restriction to acquire citizenship. Please see country-specific notes.</t>
-  </si>
-  <si>
     <t>military</t>
   </si>
   <si>
     <t>public-service</t>
   </si>
   <si>
-    <t>{cntry} has a public services restriction to acquire citizenship. You must have servced in a public-service role. Please see country-specific notes.</t>
-  </si>
-  <si>
-    <t>{cntry} has a military restriction to acquire citizenship. You must have servced in a military. Please see country-specific notes.</t>
-  </si>
-  <si>
     <t>The achievements covered are in fields such as sports, culture, science or business that are considered as special by the respective state.</t>
   </si>
   <si>
     <t>achievements</t>
   </si>
   <si>
-    <t>{cntry} may have restriction to acquire citizenship. Please see-country-specific notes.</t>
+    <t>group</t>
+  </si>
+  <si>
+    <t>parent-residence</t>
+  </si>
+  <si>
+    <t>father-birth</t>
+  </si>
+  <si>
+    <t>{cntry} requires father is also born in the country. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>parent-group</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship if parent is part of a specific group (e.g. ethnicity, race or religion). Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship if you are part of a specific group (e.g. ethnicity, race or religion). Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts citizenship to those whose parents reside or have resided in {cntry}. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship to those who served in a military. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship to those who served in a public-service-role. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} has an mode restriction to acquire citizenship. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts citizenship acquisition based on age. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} may havea restriction to acquire citizenship. Please see-country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} requires residence to acquire citizenship. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>parent-resident</t>
+  </si>
+  <si>
+    <t>{cntry} requires your parent reside in {cntry} to acquire citizenship. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>dual</t>
+  </si>
+  <si>
+    <t>wedlock</t>
+  </si>
+  <si>
+    <t>father-citizen</t>
+  </si>
+  <si>
+    <t>{cntry} requires child is born to married parents to acquire citizenship. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} requires child is born to a father who is a citizen of {cntry}. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>adoption</t>
+  </si>
+  <si>
+    <t>This mode covers not only full legal adoption but acquisition based on other forms of legal guardianship, including the kafala system in Islamic law. The specifications will record the nature of the legal status in national law (adoption, guardianship, kafala etc)</t>
+  </si>
+  <si>
+    <t>spouse-group</t>
+  </si>
+  <si>
+    <t>spouse-female</t>
+  </si>
+  <si>
+    <t>spouse-female-residence</t>
+  </si>
+  <si>
+    <t>spouse-male</t>
+  </si>
+  <si>
+    <t>spouse-gender</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship if spouse of a citizen is part of a specific group (e.g. ethnicity, race or religion). Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship by gender. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship to the male spouse of a female citizen. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts citizenship to the female spouse of a male citizen of {cntry} residing in {cntry}. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship to the female spouse of a male citizen of {cntry}. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} has a dual citizenship restriction. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>relatives</t>
+  </si>
+  <si>
+    <t>Relatives pertains to spouses, children or grandchildren</t>
+  </si>
+  <si>
+    <t>generational</t>
+  </si>
+  <si>
+    <t>spousal</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship only to children or grandchild. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship only to the spouse. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship to those who have schooled in {cntry} for a period of time. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>schooling-period</t>
+  </si>
+  <si>
+    <t>residence-period</t>
+  </si>
+  <si>
+    <t>{cntry} restricts acquisition of citizenship to those who have resided in {cntry} for a period of time. Please see country-specific notes.</t>
+  </si>
+  <si>
+    <t>childhood</t>
+  </si>
+  <si>
+    <t>cultural-affinity</t>
+  </si>
+  <si>
+    <t>Cultural affinity is defined as a person’s origin, belonging to an ethnic, cultural or language group, race or religion.</t>
   </si>
 </sst>
 </file>
@@ -453,17 +577,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A956F443-710E-4DC2-A271-2AD691D02F76}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -474,47 +601,183 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8D0032-49C2-4C91-BE55-93E337A074B5}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,37 +800,78 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968977A2-F164-46BA-886A-743D65A7623D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>